--- a/Sprint Backlog/Sprint5 Nov19-26/Planning and Burndown/Initial Planning and Burndown Chart.xlsx
+++ b/Sprint Backlog/Sprint5 Nov19-26/Planning and Burndown/Initial Planning and Burndown Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qi\Desktop\Team27\Sprint Backlog\Sprint5\Planning and Burndown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qi\Desktop\Team27\Sprint Backlog\Sprint5 Nov19-26\Planning and Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D42CE60-0F2A-45A5-A38D-D7F4B8DEB904}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9D342-F3A0-4BB0-BCD8-E544034D9F1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{E26ED3F2-7FF5-461C-B9EE-AAC597F16CF8}"/>
   </bookViews>
@@ -270,6 +270,9 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -303,6 +306,10 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -343,6 +350,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -379,6 +390,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -415,6 +430,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -451,6 +470,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -483,6 +506,10 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -521,6 +548,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -558,6 +589,20 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -603,6 +648,16 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -637,6 +692,10 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -679,65 +738,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1933,18 +1933,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B31CD5ED-DA30-4B5B-9C2E-BD07FBAC5C04}" name="Table1" displayName="Table1" ref="A1:L8" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:L7" xr:uid="{4F9759AE-BCDD-4C93-BCA3-CA94BFA349CB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{3ACA0BEF-0DA9-435F-A244-9672369B292D}" name="User Stories" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6DF7373E-780B-4E1C-BCF0-8615D6B337E5}" name="Tasks" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D38495B2-E249-445F-8D51-8F668993E4A3}" name="Dependency" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D1964B85-D35A-4849-B42D-0A0B7B68C7CD}" name="Story Points" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D0DD318F-1642-444A-A573-1CB8CE779AA1}" name="1" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E11F2DB4-BF31-48F4-9587-DD065D2831E2}" name="2" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{FA4A994B-7981-4C59-983E-DB99A0267023}" name="3" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B24FEE48-3B4F-4046-8BAE-3ED79A683D7A}" name="4" dataDxfId="16" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{12163C1F-33DD-4916-9BD4-F716888134BC}" name="5" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{D01478F4-27AB-4127-84CE-DE02C992490D}" name="6" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{2AF698B0-89D9-4053-8508-224FD96C396F}" name="7" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{6664E9B4-50D7-423A-9582-A3930F011CF0}" name="8" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3ACA0BEF-0DA9-435F-A244-9672369B292D}" name="User Stories" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6DF7373E-780B-4E1C-BCF0-8615D6B337E5}" name="Tasks" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{D38495B2-E249-445F-8D51-8F668993E4A3}" name="Dependency" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D1964B85-D35A-4849-B42D-0A0B7B68C7CD}" name="Story Points" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{D0DD318F-1642-444A-A573-1CB8CE779AA1}" name="1" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E11F2DB4-BF31-48F4-9587-DD065D2831E2}" name="2" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{FA4A994B-7981-4C59-983E-DB99A0267023}" name="3" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B24FEE48-3B4F-4046-8BAE-3ED79A683D7A}" name="4" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{12163C1F-33DD-4916-9BD4-F716888134BC}" name="5" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{D01478F4-27AB-4127-84CE-DE02C992490D}" name="6" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{2AF698B0-89D9-4053-8508-224FD96C396F}" name="7" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{6664E9B4-50D7-423A-9582-A3930F011CF0}" name="8" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1954,7 +1954,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05D8F1E3-0789-4F1C-A68C-AC72022968A7}" name="burndown" displayName="burndown" ref="A1:J5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:J5" xr:uid="{B0649E73-B99F-4382-B739-27E9FADA64DE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BEAED5CF-41A6-49A4-8D73-CE3EE0BE9EC2}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{BEAED5CF-41A6-49A4-8D73-CE3EE0BE9EC2}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F65FF7AC-9761-4A5B-95A1-A36B3EEC1F3A}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{B57E2A10-2BF4-40E9-91E2-D5DACF4797C0}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{F9713ACA-8B31-4E95-B3DB-ECB502813E2B}" uniqueName="4" name="Column4" queryTableFieldId="4"/>
@@ -2269,7 +2269,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
